--- a/dados/disciplinas.xlsx
+++ b/dados/disciplinas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB0C7E6-7326-BF46-B8AE-ED1D02DB7F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765A164-545C-4F45-AA03-F49FC8B9BDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{415C89DD-2881-EE4A-BB65-3C7112E02C39}"/>
+    <workbookView xWindow="5620" yWindow="6800" windowWidth="27840" windowHeight="16740" xr2:uid="{415C89DD-2881-EE4A-BB65-3C7112E02C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>CODDISC</t>
   </si>
@@ -86,40 +86,10 @@
     <t>PROJETO INTEGRADOR I - EXTENSÃO CURRICULARIZADA</t>
   </si>
   <si>
-    <t>0423SI0019</t>
-  </si>
-  <si>
-    <t>ESTRUTURAS DE DADOS E ALGORITMOS</t>
-  </si>
-  <si>
-    <t>0423SI0020</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERACIONAIS II</t>
-  </si>
-  <si>
-    <t>0423SI0021</t>
-  </si>
-  <si>
-    <t>SISTEMAS DE BANCO DE DADOS</t>
-  </si>
-  <si>
-    <t>0423SI0022</t>
-  </si>
-  <si>
-    <t>ENGENHARIA DE SOFTWARE II</t>
-  </si>
-  <si>
-    <t>0423SI0023</t>
-  </si>
-  <si>
-    <t>TÓPICOS ESPECIAIS I</t>
-  </si>
-  <si>
-    <t>0423SI0024</t>
-  </si>
-  <si>
-    <t>PROJETO INTEGRADOR III - EXTENSÃO CURRICULARIZADA</t>
+    <t>CODTURMA</t>
+  </si>
+  <si>
+    <t>SIN-2A-N</t>
   </si>
 </sst>
 </file>
@@ -175,13 +145,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBA2D977-6A2F-1040-AEDC-0CAE04A49D76}" name="Tabela1" displayName="Tabela1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{FBA2D977-6A2F-1040-AEDC-0CAE04A49D76}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBA2D977-6A2F-1040-AEDC-0CAE04A49D76}" name="Tabela1" displayName="Tabela1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{FBA2D977-6A2F-1040-AEDC-0CAE04A49D76}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D3F2D0BA-BE67-964B-8EC4-E61FE2A5366C}" name="CODDISC"/>
     <tableColumn id="2" xr3:uid="{CDCAC5BB-8E3A-7B49-A014-3DFBA763A004}" name="NOME"/>
     <tableColumn id="3" xr3:uid="{D520C177-8692-C142-AD2B-8EF51161088A}" name="CARGAHORARIA"/>
     <tableColumn id="4" xr3:uid="{6CD3251F-81C5-5645-91C3-A50795229E26}" name="PERIODO"/>
+    <tableColumn id="5" xr3:uid="{E4D036C7-5663-E748-ADFF-FC3EDBCC22CA}" name="CODTURMA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,15 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6A44FA-FAB0-9E41-97D1-2FE7C914FA5C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +501,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -539,8 +518,11 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -553,8 +535,11 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -567,8 +552,11 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -581,8 +569,11 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -595,8 +586,11 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -609,89 +603,8 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
